--- a/assembly_oligo_generator/output.xlsx
+++ b/assembly_oligo_generator/output.xlsx
@@ -1,130 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\assembly_oligo_generator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63B376A-2932-42A6-8432-E7223C77FB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24555" yWindow="3225" windowWidth="21600" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Forward Name</t>
-  </si>
-  <si>
-    <t>Forward Sequence</t>
-  </si>
-  <si>
-    <t>Reverse Name</t>
-  </si>
-  <si>
-    <t>Reverse Sequence</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sequence</t>
   </si>
   <si>
     <t>CAGE2549.SOX2.g10.F</t>
   </si>
   <si>
+    <t>CAGE2549.SOX2.g10.R</t>
+  </si>
+  <si>
     <t>CAGE2549.SOX2.g20.F</t>
   </si>
   <si>
+    <t>CAGE2549.SOX2.g20.R</t>
+  </si>
+  <si>
     <t>CAGE2532.ASCL1.g4.F</t>
   </si>
   <si>
+    <t>CAGE2532.ASCL1.g4.R</t>
+  </si>
+  <si>
     <t>CAGE2532.ASCL1.g7.F</t>
   </si>
   <si>
+    <t>CAGE2532.ASCL1.g7.R</t>
+  </si>
+  <si>
     <t>CAGE2539.MBD3.g1.F</t>
   </si>
   <si>
+    <t>CAGE2539.MBD3.g1.R</t>
+  </si>
+  <si>
     <t>CAGE2538.MBD3.g2.F</t>
   </si>
   <si>
+    <t>CAGE2538.MBD3.g2.R</t>
+  </si>
+  <si>
     <t>RB20.PPP1R12C.g2.F</t>
   </si>
   <si>
+    <t>RB20.PPP1R12C.g2.R</t>
+  </si>
+  <si>
     <t>RB20.PPP1R12C.g8.F</t>
   </si>
   <si>
+    <t>RB20.PPP1R12C.g8.R</t>
+  </si>
+  <si>
     <t>CACCGATTATAAATACCGGCCCCGG</t>
   </si>
   <si>
+    <t>AAACCCGGGGCCGGTATTTATAATC</t>
+  </si>
+  <si>
     <t>CACCGAAAGTTTCCACTCGGCGCCC</t>
   </si>
   <si>
+    <t>AAACGGGCGCCGAGTGGAAACTTTC</t>
+  </si>
+  <si>
     <t>CACCGAAGATGGAGAGCGGCGGCGC</t>
   </si>
   <si>
+    <t>AAACGCGCCGCCGCTCTCCATCTTC</t>
+  </si>
+  <si>
     <t>CACCGGCAAAGAAACAGGCTGCGGG</t>
   </si>
   <si>
+    <t>AAACCCCGCAGCCTGTTTCTTTGCC</t>
+  </si>
+  <si>
     <t>CACCGCGTGGTGTTGAGCCATACGC</t>
   </si>
   <si>
+    <t>AAACGCGTATGGCTCAACACCACGC</t>
+  </si>
+  <si>
     <t>CACCGGCCGCAGCTGGCGCGCTACC</t>
   </si>
   <si>
+    <t>AAACGGTAGCGCGCCAGCTGCGGCC</t>
+  </si>
+  <si>
     <t>CACCGACCCCACAGTGGGGCCACTA</t>
   </si>
   <si>
+    <t>AAACTAGTGGCCCCACTGTGGGGTC</t>
+  </si>
+  <si>
     <t>CACCGTCCCTAGTGGCCCCACTGTG</t>
-  </si>
-  <si>
-    <t>CAGE2549.SOX2.g10.R</t>
-  </si>
-  <si>
-    <t>CAGE2549.SOX2.g20.R</t>
-  </si>
-  <si>
-    <t>CAGE2532.ASCL1.g4.R</t>
-  </si>
-  <si>
-    <t>CAGE2532.ASCL1.g7.R</t>
-  </si>
-  <si>
-    <t>CAGE2539.MBD3.g1.R</t>
-  </si>
-  <si>
-    <t>CAGE2538.MBD3.g2.R</t>
-  </si>
-  <si>
-    <t>RB20.PPP1R12C.g2.R</t>
-  </si>
-  <si>
-    <t>RB20.PPP1R12C.g8.R</t>
-  </si>
-  <si>
-    <t>AAACCCGGGGCCGGTATTTATAATC</t>
-  </si>
-  <si>
-    <t>AAACGGGCGCCGAGTGGAAACTTTC</t>
-  </si>
-  <si>
-    <t>AAACGCGCCGCCGCTCTCCATCTTC</t>
-  </si>
-  <si>
-    <t>AAACCCCGCAGCCTGTTTCTTTGCC</t>
-  </si>
-  <si>
-    <t>AAACGCGTATGGCTCAACACCACGC</t>
-  </si>
-  <si>
-    <t>AAACGGTAGCGCGCCAGCTGCGGCC</t>
-  </si>
-  <si>
-    <t>AAACTAGTGGCCCCACTGTGGGGTC</t>
   </si>
   <si>
     <t>AAACCACAGTGGGGCCACTAGGGAC</t>
@@ -133,8 +121,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,21 +185,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -249,7 +229,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -283,7 +263,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -318,10 +297,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -494,145 +472,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B17" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
